--- a/public/PdfForm.xlsx
+++ b/public/PdfForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\workspace\React\exbon-daily-report\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D81F0-9348-4F67-BC1C-A637FF1067B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1474DCC0-4777-4349-B712-4C4F771207B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Report" sheetId="135" r:id="rId1"/>
@@ -116,20 +116,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,10 +137,20 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -477,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -496,27 +499,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -526,148 +514,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1181,8 +1178,8 @@
   <cols>
     <col min="1" max="1" width="14" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
@@ -1197,11 +1194,11 @@
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
-      <c r="F1" s="28"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -1209,15 +1206,15 @@
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -1225,26 +1222,26 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
@@ -1253,256 +1250,256 @@
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="25"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="F9" s="20"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="14">
+      <c r="B16" s="63"/>
+      <c r="C16" s="32">
         <f>SUM(C8:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>

--- a/public/PdfForm.xlsx
+++ b/public/PdfForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\workspace\React\exbon-daily-report\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1474DCC0-4777-4349-B712-4C4F771207B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14310DF9-2298-4F1E-8048-5F7FD742ABC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,6 +577,66 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,12 +652,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,60 +666,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,8 +1176,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
@@ -1187,13 +1187,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="13"/>
       <c r="G1" s="2"/>
     </row>
@@ -1201,11 +1201,11 @@
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
@@ -1217,11 +1217,11 @@
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1233,11 +1233,11 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="28" t="s">
         <v>20</v>
       </c>
@@ -1247,43 +1247,43 @@
       <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="55" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="52" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="40"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
@@ -1351,155 +1351,155 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="32">
         <f>SUM(C8:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
@@ -1557,6 +1557,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A18:F21"/>
     <mergeCell ref="A23:F26"/>
     <mergeCell ref="A28:F31"/>
@@ -1567,14 +1575,6 @@
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{7CAA0989-4F43-4FD8-B312-70CA488ABB3B}">
